--- a/config/default/forms/app/tracking.xlsx
+++ b/config/default/forms/app/tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hivTreatment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300C951A-E773-49B1-AEAD-A60A67DE8A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEAB763-DF93-4DFC-8C19-836ADE2A3D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81585" yWindow="2715" windowWidth="6000" windowHeight="2985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="82515" yWindow="720" windowWidth="6000" windowHeight="2985" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
   <si>
     <t>type</t>
   </si>
@@ -436,9 +436,6 @@
     <t>kp</t>
   </si>
   <si>
-    <t>KP</t>
-  </si>
-  <si>
     <t>pe</t>
   </si>
   <si>
@@ -496,7 +493,16 @@
     <t>Comments explaining the reasons for Voluntary Exit</t>
   </si>
   <si>
-    <t>${status}=”voluntary_exit”</t>
+    <t>${tracking_attempted}=”yes”</t>
+  </si>
+  <si>
+    <t>Key Population</t>
+  </si>
+  <si>
+    <t>Peer Educator</t>
+  </si>
+  <si>
+    <t>${status}=”voluntary_exitt”</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,547 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="152">
+  <dxfs count="206">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -2425,11 +2971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3370,7 +3916,7 @@
         <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="5"/>
@@ -3408,7 +3954,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -3445,7 +3991,7 @@
         <v>55</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
@@ -3473,15 +4019,17 @@
         <v>52</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3514,7 +4062,9 @@
         <v>86</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -3549,7 +4099,9 @@
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -3584,7 +4136,9 @@
       <c r="D34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -3608,18 +4162,20 @@
     </row>
     <row r="35" spans="1:25" ht="13.5">
       <c r="A35" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3654,7 +4210,9 @@
       <c r="D36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -3681,14 +4239,14 @@
         <v>52</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3724,7 +4282,9 @@
       <c r="D38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3759,7 +4319,9 @@
       <c r="D39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3794,7 +4356,9 @@
       <c r="D40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3900,732 +4464,984 @@
       <c r="Y43" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y28 A32:Y32 A40:Y961">
-    <cfRule type="containsText" dxfId="151" priority="326" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y28 A32:Y32 A40:Y946">
-    <cfRule type="expression" dxfId="150" priority="327">
+  <conditionalFormatting sqref="A1:Y28 A32:D32 A41:Y961 F32:Y32 A40:D40 F40:Y40">
+    <cfRule type="containsText" dxfId="205" priority="380" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Y28 A32:D32 A41:Y946 F32:Y32 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="204" priority="381">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y28 A32:Y32 A40:Y961">
-    <cfRule type="expression" dxfId="149" priority="328">
+  <conditionalFormatting sqref="A1:Y28 A32:D32 A41:Y961 F32:Y32 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="203" priority="382">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y28 A32:Y32 A40:Y961">
-    <cfRule type="cellIs" dxfId="148" priority="329" operator="equal">
+  <conditionalFormatting sqref="A1:Y28 A32:D32 A41:Y961 F32:Y32 A40:D40 F40:Y40">
+    <cfRule type="cellIs" dxfId="202" priority="383" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I28 I32 I40:I961">
-    <cfRule type="expression" dxfId="147" priority="332">
+    <cfRule type="expression" dxfId="201" priority="386">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C28 C32 C40:C961">
-    <cfRule type="expression" dxfId="146" priority="333">
+    <cfRule type="expression" dxfId="200" priority="387">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B28 B32 B40:B961">
-    <cfRule type="expression" dxfId="145" priority="334">
+    <cfRule type="expression" dxfId="199" priority="388">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A28 A32 A40:A961">
-    <cfRule type="cellIs" dxfId="144" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="389" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="143" priority="337" operator="notEqual">
+    <cfRule type="cellIs" dxfId="197" priority="391" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="142" priority="338" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="196" priority="392" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="141" priority="339" operator="notEqual">
+    <cfRule type="cellIs" dxfId="195" priority="393" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="140" priority="340" operator="notEqual">
+    <cfRule type="cellIs" dxfId="194" priority="394" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="139" priority="341" operator="notEqual">
+    <cfRule type="cellIs" dxfId="193" priority="395" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="138" priority="342" operator="notEqual">
+    <cfRule type="cellIs" dxfId="192" priority="396" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="137" priority="343" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="191" priority="397" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="136" priority="344" operator="notEqual">
+    <cfRule type="cellIs" dxfId="190" priority="398" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="135" priority="345" operator="notEqual">
+    <cfRule type="cellIs" dxfId="189" priority="399" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="134" priority="346" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="188" priority="400" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="133" priority="347" operator="notEqual">
+    <cfRule type="cellIs" dxfId="187" priority="401" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" dxfId="132" priority="348" operator="notEqual">
+    <cfRule type="cellIs" dxfId="186" priority="402" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H28 H32 H40:H946">
-    <cfRule type="expression" dxfId="131" priority="349">
+    <cfRule type="expression" dxfId="185" priority="403">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y28 A32:Y32 A40:Y946">
-    <cfRule type="expression" dxfId="130" priority="350">
+  <conditionalFormatting sqref="A1:Y28 A32:D32 A41:Y946 F32:Y32 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="184" priority="404">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y28 A32:Y32 A40:Y961">
-    <cfRule type="expression" dxfId="129" priority="351">
+  <conditionalFormatting sqref="A1:Y28 A32:D32 A41:Y961 F32:Y32 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="183" priority="405">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:D29 F29:Y29">
-    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="182" priority="187" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:D29 F29:Y29">
-    <cfRule type="expression" dxfId="127" priority="134">
+    <cfRule type="expression" dxfId="181" priority="188">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:D29 F29:Y29">
-    <cfRule type="expression" dxfId="126" priority="135">
+    <cfRule type="expression" dxfId="180" priority="189">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:D29 F29:Y29">
-    <cfRule type="cellIs" dxfId="125" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="190" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="124" priority="137">
+    <cfRule type="expression" dxfId="178" priority="191">
       <formula>AND($I29 = "", $A29 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="123" priority="138">
+    <cfRule type="expression" dxfId="177" priority="192">
       <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="122" priority="139">
+    <cfRule type="expression" dxfId="176" priority="193">
       <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="121" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="194" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="120" priority="141">
+    <cfRule type="expression" dxfId="174" priority="195">
       <formula>AND(NOT($G29 = ""), $H29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:D29 F29:Y29">
-    <cfRule type="expression" dxfId="119" priority="142">
+    <cfRule type="expression" dxfId="173" priority="196">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:D29 F29:Y29">
-    <cfRule type="expression" dxfId="118" priority="143">
+    <cfRule type="expression" dxfId="172" priority="197">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="containsText" dxfId="117" priority="121" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="116" priority="122">
+  <conditionalFormatting sqref="A33:D33 F33:Y33">
+    <cfRule type="containsText" dxfId="171" priority="175" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:D33 F33:Y33">
+    <cfRule type="expression" dxfId="170" priority="176">
       <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="115" priority="123">
+  <conditionalFormatting sqref="A33:D33 F33:Y33">
+    <cfRule type="expression" dxfId="169" priority="177">
       <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="cellIs" dxfId="114" priority="124" operator="equal">
+  <conditionalFormatting sqref="A33:D33 F33:Y33">
+    <cfRule type="cellIs" dxfId="168" priority="178" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="113" priority="125">
+    <cfRule type="expression" dxfId="167" priority="179">
       <formula>AND($I33 = "", $A33 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="112" priority="126">
+    <cfRule type="expression" dxfId="166" priority="180">
       <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $C33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="111" priority="127">
+    <cfRule type="expression" dxfId="165" priority="181">
       <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $B33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="110" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="182" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="109" priority="129">
+    <cfRule type="expression" dxfId="163" priority="183">
       <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="108" priority="130">
+  <conditionalFormatting sqref="A33:D33 F33:Y33">
+    <cfRule type="expression" dxfId="162" priority="184">
       <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:Y33">
-    <cfRule type="expression" dxfId="107" priority="131">
+  <conditionalFormatting sqref="A33:D33 F33:Y33">
+    <cfRule type="expression" dxfId="161" priority="185">
       <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:Y36">
-    <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:Y36">
-    <cfRule type="expression" dxfId="105" priority="110">
+  <conditionalFormatting sqref="A36:D36 F36:Y36">
+    <cfRule type="containsText" dxfId="160" priority="163" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:D36 F36:Y36">
+    <cfRule type="expression" dxfId="159" priority="164">
       <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:Y36">
-    <cfRule type="expression" dxfId="104" priority="111">
+  <conditionalFormatting sqref="A36:D36 F36:Y36">
+    <cfRule type="expression" dxfId="158" priority="165">
       <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:Y36">
-    <cfRule type="cellIs" dxfId="103" priority="112" operator="equal">
+  <conditionalFormatting sqref="A36:D36 F36:Y36">
+    <cfRule type="cellIs" dxfId="157" priority="166" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="102" priority="113">
+    <cfRule type="expression" dxfId="156" priority="167">
       <formula>AND($I36 = "", $A36 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="101" priority="114">
+    <cfRule type="expression" dxfId="155" priority="168">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $C36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="100" priority="115">
+    <cfRule type="expression" dxfId="154" priority="169">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $B36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="170" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="98" priority="117">
+    <cfRule type="expression" dxfId="152" priority="171">
       <formula>AND(NOT($G36 = ""), $H36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:Y36">
-    <cfRule type="expression" dxfId="97" priority="118">
+  <conditionalFormatting sqref="A36:D36 F36:Y36">
+    <cfRule type="expression" dxfId="151" priority="172">
       <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:Y36">
-    <cfRule type="expression" dxfId="96" priority="119">
+  <conditionalFormatting sqref="A36:D36 F36:Y36">
+    <cfRule type="expression" dxfId="150" priority="173">
       <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="expression" dxfId="94" priority="98">
+  <conditionalFormatting sqref="A34:D34 F34:Y34">
+    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:D34 F34:Y34">
+    <cfRule type="expression" dxfId="148" priority="152">
       <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="expression" dxfId="93" priority="99">
+  <conditionalFormatting sqref="A34:D34 F34:Y34">
+    <cfRule type="expression" dxfId="147" priority="153">
       <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+  <conditionalFormatting sqref="A34:D34 F34:Y34">
+    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="91" priority="101">
+    <cfRule type="expression" dxfId="145" priority="155">
       <formula>AND($I34 = "", $A34 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="90" priority="102">
+    <cfRule type="expression" dxfId="144" priority="156">
       <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $C34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="89" priority="103">
+    <cfRule type="expression" dxfId="143" priority="157">
       <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $B34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="158" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="87" priority="105">
+    <cfRule type="expression" dxfId="141" priority="159">
       <formula>AND(NOT($G34 = ""), $H34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="expression" dxfId="86" priority="106">
+  <conditionalFormatting sqref="A34:D34 F34:Y34">
+    <cfRule type="expression" dxfId="140" priority="160">
       <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:Y34">
-    <cfRule type="expression" dxfId="85" priority="107">
+  <conditionalFormatting sqref="A34:D34 F34:Y34">
+    <cfRule type="expression" dxfId="139" priority="161">
       <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="expression" dxfId="83" priority="86">
+  <conditionalFormatting sqref="A38:D38 F38:Y38">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:D38 F38:Y38">
+    <cfRule type="expression" dxfId="137" priority="140">
       <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="expression" dxfId="82" priority="87">
+  <conditionalFormatting sqref="A38:D38 F38:Y38">
+    <cfRule type="expression" dxfId="136" priority="141">
       <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+  <conditionalFormatting sqref="A38:D38 F38:Y38">
+    <cfRule type="cellIs" dxfId="135" priority="142" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="80" priority="89">
+    <cfRule type="expression" dxfId="134" priority="143">
       <formula>AND($I38 = "", $A38 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="79" priority="90">
+    <cfRule type="expression" dxfId="133" priority="144">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $C38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="78" priority="91">
+    <cfRule type="expression" dxfId="132" priority="145">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="77" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="146" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="76" priority="93">
+    <cfRule type="expression" dxfId="130" priority="147">
       <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="expression" dxfId="75" priority="94">
+  <conditionalFormatting sqref="A38:D38 F38:Y38">
+    <cfRule type="expression" dxfId="129" priority="148">
       <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Y38">
-    <cfRule type="expression" dxfId="74" priority="95">
+  <conditionalFormatting sqref="A38:D38 F38:Y38">
+    <cfRule type="expression" dxfId="128" priority="149">
       <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="72" priority="62">
+  <conditionalFormatting sqref="A39:D39 F39:Y39">
+    <cfRule type="containsText" dxfId="127" priority="115" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:D39 F39:Y39">
+    <cfRule type="expression" dxfId="126" priority="116">
       <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="71" priority="63">
+  <conditionalFormatting sqref="A39:D39 F39:Y39">
+    <cfRule type="expression" dxfId="125" priority="117">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="cellIs" dxfId="70" priority="64" operator="equal">
+  <conditionalFormatting sqref="A39:D39 F39:Y39">
+    <cfRule type="cellIs" dxfId="124" priority="118" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="69" priority="65">
+    <cfRule type="expression" dxfId="123" priority="119">
       <formula>AND($I39 = "", $A39 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="122" priority="120">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="121" priority="121">
       <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="122" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="65" priority="69">
+    <cfRule type="expression" dxfId="119" priority="123">
       <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="64" priority="70">
+  <conditionalFormatting sqref="A39:D39 F39:Y39">
+    <cfRule type="expression" dxfId="118" priority="124">
       <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Y39">
-    <cfRule type="expression" dxfId="63" priority="71">
+  <conditionalFormatting sqref="A39:D39 F39:Y39">
+    <cfRule type="expression" dxfId="117" priority="125">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B29 B32:B34 B36 B38:B954">
-    <cfRule type="expression" dxfId="62" priority="776">
+    <cfRule type="expression" dxfId="116" priority="830">
       <formula>COUNTIF($B$2:$B$954,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="61" priority="778">
+    <cfRule type="expression" dxfId="115" priority="832">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$955, "begin group") = COUNTIF($A$1:$A$955, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="60" priority="779">
+    <cfRule type="expression" dxfId="114" priority="833">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$946, "begin group") = COUNTIF($A$1:$A$955, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30 F30:Y30">
-    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="113" priority="103" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30 F30:Y30">
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="112" priority="104">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30 F30:Y30">
-    <cfRule type="expression" dxfId="57" priority="51">
+    <cfRule type="expression" dxfId="111" priority="105">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30 F30:Y30">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="109" priority="107">
       <formula>AND($I30 = "", $A30 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="108" priority="108">
       <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="105" priority="111">
       <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30 F30:Y30">
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="104" priority="112">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30 F30:Y30">
-    <cfRule type="expression" dxfId="49" priority="59">
+    <cfRule type="expression" dxfId="103" priority="113">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="48" priority="60">
+    <cfRule type="expression" dxfId="102" priority="114">
       <formula>COUNTIF($B$2:$B$954,B30)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
+    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="100" priority="98">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="99" priority="99">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="97" priority="101">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="96" priority="102">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="95" priority="91" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="94" priority="92">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="93" priority="93">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="91" priority="95">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="90" priority="96">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D31 F31:Y31">
+    <cfRule type="containsText" dxfId="89" priority="79" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D31 F31:Y31">
+    <cfRule type="expression" dxfId="88" priority="80">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D31 F31:Y31">
+    <cfRule type="expression" dxfId="87" priority="81">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D31 F31:Y31">
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="85" priority="83">
+      <formula>AND($I31 = "", $A31 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="84" priority="84">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $C31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>AND(NOT($G31 = ""), $H31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D31 F31:Y31">
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:D31 F31:Y31">
+    <cfRule type="expression" dxfId="79" priority="89">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="78" priority="90">
+      <formula>COUNTIF($B$2:$B$954,B31)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35 F35:Y35">
+    <cfRule type="containsText" dxfId="77" priority="67" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35 F35:Y35">
+    <cfRule type="expression" dxfId="76" priority="68">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35 F35:Y35">
+    <cfRule type="expression" dxfId="75" priority="69">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35 F35:Y35">
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="73" priority="71">
+      <formula>AND($I35 = "", $A35 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="72" priority="72">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="71" priority="73">
+      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="69" priority="75">
+      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35 F35:Y35">
+    <cfRule type="expression" dxfId="68" priority="76">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35 F35:Y35">
+    <cfRule type="expression" dxfId="67" priority="77">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="66" priority="78">
+      <formula>COUNTIF($B$2:$B$954,B35)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="expression" dxfId="64" priority="56">
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="expression" dxfId="63" priority="57">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="61" priority="59">
+      <formula>AND($I37 = "", $A37 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="60" priority="60">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="59" priority="61">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>COUNTIF($B$2:$B$1012,B37)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:Y37">
+    <cfRule type="expression" dxfId="54" priority="66">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="52" priority="50">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="51" priority="51">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="46" priority="44">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="45" priority="45">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="42" priority="48">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="40" priority="38">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="39" priority="39">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="36" priority="42">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="expression" dxfId="34" priority="26">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="expression" dxfId="33" priority="27">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="34" priority="32">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="31" priority="29">
-      <formula>AND($I31 = "", $A31 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $C31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="27" priority="33">
-      <formula>AND(NOT($G31 = ""), $H31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="expression" dxfId="26" priority="34">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:Y31">
-    <cfRule type="expression" dxfId="25" priority="35">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="24" priority="36">
-      <formula>COUNTIF($B$2:$B$954,B31)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="22" priority="14">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="21" priority="15">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>AND($I35 = "", $A35 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $C35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>AND(AND(NOT($A35 = "end group"), NOT($A35 = "end repeat"), NOT($A35 = "")), $B35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="15" priority="21">
-      <formula>AND(NOT($G35 = ""), $H35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="14" priority="22">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:Y35">
-    <cfRule type="expression" dxfId="13" priority="23">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="12" priority="24">
-      <formula>COUNTIF($B$2:$B$954,B35)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>AND($I37 = "", $A37 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $C37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>COUNTIF($B$2:$B$1012,B37)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(NOT($G37 = ""), $H37 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:Y37">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4643,7 +5459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1048545"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -4898,7 +5714,7 @@
         <v>132</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4906,10 +5722,10 @@
         <v>82</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4917,10 +5733,10 @@
         <v>82</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4928,10 +5744,10 @@
         <v>89</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4939,10 +5755,10 @@
         <v>89</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4950,10 +5766,10 @@
         <v>89</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4969,7 +5785,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>51</v>
@@ -4980,7 +5796,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>55</v>
@@ -5041,7 +5857,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>43999.48874270833</v>
+        <v>44000.803775694447</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>63</v>

--- a/config/default/forms/app/tracking.xlsx
+++ b/config/default/forms/app/tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts\kpif release\kpif and properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hts\hts_kpif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BD22B-B72C-4AEC-A607-9AF4426F83B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F8A3B-645F-484E-ADC2-7F5ABC83467B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>${_165004_trackingAttempted_99DCT}=”_1065_yes_99DCT”</t>
   </si>
   <si>
-    <t>Can not be more than 10</t>
-  </si>
-  <si>
     <t>_160753_dateAttempted_99DCT</t>
   </si>
   <si>
@@ -801,6 +798,9 @@
   </si>
   <si>
     <t xml:space="preserve">Informant reached </t>
+  </si>
+  <si>
+    <t>Attempt number should be between 1 and 3</t>
   </si>
 </sst>
 </file>
@@ -3780,10 +3780,10 @@
   <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4884,7 +4884,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>57</v>
@@ -4991,7 +4991,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>67</v>
@@ -5001,10 +5001,10 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5029,10 +5029,10 @@
         <v>54</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>57</v>
@@ -5045,7 +5045,7 @@
         <v>58</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="38" spans="1:25" ht="27">
       <c r="A38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="C38" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>57</v>
@@ -5104,13 +5104,13 @@
     </row>
     <row r="39" spans="1:25" ht="27">
       <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>57</v>
@@ -5141,13 +5141,13 @@
     </row>
     <row r="40" spans="1:25" ht="27">
       <c r="A40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>57</v>
@@ -5181,14 +5181,14 @@
         <v>69</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="42" spans="1:25" ht="27">
       <c r="A42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>57</v>
@@ -5253,16 +5253,16 @@
         <v>69</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -5287,13 +5287,13 @@
     </row>
     <row r="44" spans="1:25" ht="27">
       <c r="A44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>57</v>
@@ -5410,15 +5410,15 @@
         <v>13</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -5442,13 +5442,13 @@
     </row>
     <row r="50" spans="1:25" ht="27">
       <c r="A50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -5475,18 +5475,18 @@
     </row>
     <row r="51" spans="1:25" ht="27">
       <c r="A51" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -5510,13 +5510,13 @@
     </row>
     <row r="52" spans="1:25" ht="40.5">
       <c r="A52" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -5543,18 +5543,18 @@
     </row>
     <row r="53" spans="1:25" ht="27">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -5578,13 +5578,13 @@
     </row>
     <row r="54" spans="1:25" ht="13.5">
       <c r="A54" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -5611,20 +5611,20 @@
     </row>
     <row r="55" spans="1:25" ht="27">
       <c r="A55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -5648,20 +5648,20 @@
     </row>
     <row r="56" spans="1:25" ht="17.45" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -5685,13 +5685,13 @@
     </row>
     <row r="57" spans="1:25" ht="27">
       <c r="A57" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
@@ -5720,18 +5720,18 @@
     </row>
     <row r="58" spans="1:25" ht="13.5">
       <c r="A58" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -5755,13 +5755,13 @@
     </row>
     <row r="59" spans="1:25" ht="27">
       <c r="A59" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
@@ -5790,20 +5790,20 @@
     </row>
     <row r="60" spans="1:25" ht="27">
       <c r="A60" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -5827,20 +5827,20 @@
     </row>
     <row r="61" spans="1:25" ht="27">
       <c r="A61" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -5864,20 +5864,20 @@
     </row>
     <row r="62" spans="1:25" ht="40.5">
       <c r="A62" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -5901,20 +5901,20 @@
     </row>
     <row r="63" spans="1:25" ht="40.5">
       <c r="A63" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -5938,20 +5938,20 @@
     </row>
     <row r="64" spans="1:25" ht="27">
       <c r="A64" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -6002,13 +6002,13 @@
     </row>
     <row r="66" spans="1:25" ht="27">
       <c r="A66" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
@@ -6037,18 +6037,18 @@
     </row>
     <row r="67" spans="1:25" ht="13.5">
       <c r="A67" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -6099,13 +6099,13 @@
     </row>
     <row r="69" spans="1:25" ht="13.5">
       <c r="A69" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -6132,20 +6132,20 @@
     </row>
     <row r="70" spans="1:25" ht="27">
       <c r="A70" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -6169,20 +6169,20 @@
     </row>
     <row r="71" spans="1:25" ht="27">
       <c r="A71" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -6206,13 +6206,13 @@
     </row>
     <row r="72" spans="1:25" ht="13.5">
       <c r="A72" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -6239,20 +6239,20 @@
     </row>
     <row r="73" spans="1:25" ht="27">
       <c r="A73" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -6276,20 +6276,20 @@
     </row>
     <row r="74" spans="1:25" ht="54">
       <c r="A74" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -6313,20 +6313,20 @@
     </row>
     <row r="75" spans="1:25" ht="27">
       <c r="A75" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -6350,13 +6350,13 @@
     </row>
     <row r="76" spans="1:25" ht="27">
       <c r="A76" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
@@ -6385,20 +6385,20 @@
     </row>
     <row r="77" spans="1:25" ht="27">
       <c r="A77" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -6422,20 +6422,20 @@
     </row>
     <row r="78" spans="1:25" ht="27">
       <c r="A78" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -6459,20 +6459,20 @@
     </row>
     <row r="79" spans="1:25" ht="27">
       <c r="A79" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -6496,20 +6496,20 @@
     </row>
     <row r="80" spans="1:25" ht="27">
       <c r="A80" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -6533,20 +6533,20 @@
     </row>
     <row r="81" spans="1:25" ht="27">
       <c r="A81" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -6570,20 +6570,20 @@
     </row>
     <row r="82" spans="1:25" ht="27">
       <c r="A82" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -6607,20 +6607,20 @@
     </row>
     <row r="83" spans="1:25" ht="27">
       <c r="A83" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -6644,20 +6644,20 @@
     </row>
     <row r="84" spans="1:25" ht="27">
       <c r="A84" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -6681,13 +6681,13 @@
     </row>
     <row r="85" spans="1:25" ht="27">
       <c r="A85" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
@@ -6716,20 +6716,20 @@
     </row>
     <row r="86" spans="1:25" ht="40.5">
       <c r="A86" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -6753,20 +6753,20 @@
     </row>
     <row r="87" spans="1:25" ht="40.5">
       <c r="A87" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -6788,22 +6788,22 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="40.5">
+    <row r="88" spans="1:25" ht="27">
       <c r="A88" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -6827,20 +6827,20 @@
     </row>
     <row r="89" spans="1:25" ht="27">
       <c r="A89" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -8198,7 +8198,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.9">
       <c r="A1" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -8212,299 +8212,299 @@
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5">
       <c r="A3" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="C4" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>219</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1048543" ht="15.75" customHeight="1"/>
@@ -8530,42 +8530,42 @@
     <col min="4" max="1025" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75">
+    <row r="1" spans="1:6" ht="13.9">
       <c r="A1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="15">
         <f ca="1">NOW()</f>
-        <v>44091.534743634256</v>
+        <v>44102.640432291664</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="F2" s="10"/>
     </row>
